--- a/data/excel/InteractiveMessaging1.xlsx
+++ b/data/excel/InteractiveMessaging1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4205C0-330F-47D3-B8C8-6ADF022C0A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5AE45B-3382-4A22-99E3-1860103FE32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flight" sheetId="1" r:id="rId1"/>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AI18" sqref="AI18"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
